--- a/carteira_21-9-2021.xlsx
+++ b/carteira_21-9-2021.xlsx
@@ -17854,28 +17854,28 @@
         <v>44460</v>
       </c>
       <c r="B397">
-        <v>17640000</v>
+        <v>17595000</v>
       </c>
       <c r="C397">
-        <v>46428480</v>
+        <v>46388160</v>
       </c>
       <c r="D397">
-        <v>5736000</v>
+        <v>5754000</v>
       </c>
       <c r="E397">
-        <v>29920000</v>
+        <v>29832000</v>
       </c>
       <c r="F397">
-        <v>13120000</v>
+        <v>13104000</v>
       </c>
       <c r="G397">
-        <v>1640000</v>
+        <v>1639000</v>
       </c>
       <c r="H397">
-        <v>9336800</v>
+        <v>9345600</v>
       </c>
       <c r="I397">
-        <v>12850000</v>
+        <v>12815000</v>
       </c>
       <c r="J397">
         <v>145779346</v>
@@ -17884,13 +17884,13 @@
         <v>4206000</v>
       </c>
       <c r="L397">
-        <v>71931150</v>
+        <v>71922600</v>
       </c>
       <c r="M397">
-        <v>2796800</v>
+        <v>2809600</v>
       </c>
       <c r="N397">
-        <v>361384576</v>
+        <v>361190306</v>
       </c>
     </row>
   </sheetData>
